--- a/Codes/Calcul_PCR_Moyen_INSPQ.xlsx
+++ b/Codes/Calcul_PCR_Moyen_INSPQ.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loulou/Dropbox (CEDIA)/EnqueteCOVID/Codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/IngridPeignier/Nextcloud/Enquete_COVID/Rapport/Semaine 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12E9790-EB9F-984D-A58F-DC2964C5AAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CE441D-1F64-7346-A625-E6897478E27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27660" yWindow="2700" windowWidth="26920" windowHeight="17080" activeTab="1" xr2:uid="{F3F7B167-FBC9-3A4F-92DB-865B14393AA1}"/>
+    <workbookView xWindow="35060" yWindow="-4780" windowWidth="26920" windowHeight="16560" activeTab="2" xr2:uid="{F3F7B167-FBC9-3A4F-92DB-865B14393AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sem1" sheetId="1" r:id="rId1"/>
     <sheet name="Sem2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sem 3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>Calcul PCR moyen</t>
   </si>
@@ -197,13 +198,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_)_ ;_ * \(#,##0\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="###0"/>
     <numFmt numFmtId="167" formatCode="###0.0"/>
     <numFmt numFmtId="168" formatCode="###0.00000"/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -560,7 +562,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -668,6 +670,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1029,7 +1032,7 @@
   <dimension ref="A1:P120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1399,10 +1402,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="48"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="17" t="s">
         <v>31</v>
       </c>
@@ -1425,7 +1428,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="50" t="s">
         <v>35</v>
       </c>
       <c r="I19" s="20" t="s">
@@ -1453,7 +1456,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="H20" s="50"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="24" t="s">
         <v>45</v>
       </c>
@@ -1479,7 +1482,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="H21" s="50"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="24" t="s">
         <v>46</v>
       </c>
@@ -1505,7 +1508,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="H22" s="50"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="24" t="s">
         <v>47</v>
       </c>
@@ -1531,7 +1534,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="H23" s="50"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="24" t="s">
         <v>48</v>
       </c>
@@ -1557,7 +1560,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="H24" s="50"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="24" t="s">
         <v>49</v>
       </c>
@@ -1583,7 +1586,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="H25" s="50"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="41" t="s">
         <v>36</v>
       </c>
@@ -1631,10 +1634,10 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="52"/>
+      <c r="I27" s="53"/>
       <c r="J27" s="29">
         <v>13161750.000000056</v>
       </c>
@@ -2874,8 +2877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629368DB-0407-0C46-BC15-45BAE0DA0A9D}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3190,6 +3193,10 @@
       <c r="A13" t="s">
         <v>1</v>
       </c>
+      <c r="D13" s="47">
+        <f>D11/7</f>
+        <v>4341.9107612011767</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -3278,10 +3285,10 @@
       <c r="H21" s="46"/>
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
-      <c r="L21" s="47" t="s">
+      <c r="L21" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="48"/>
+      <c r="M21" s="49"/>
       <c r="N21" s="17" t="s">
         <v>31</v>
       </c>
@@ -3308,7 +3315,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
       <c r="J22" s="46"/>
-      <c r="L22" s="49" t="s">
+      <c r="L22" s="50" t="s">
         <v>35</v>
       </c>
       <c r="M22" s="20" t="s">
@@ -3341,7 +3348,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
-      <c r="L23" s="50"/>
+      <c r="L23" s="51"/>
       <c r="M23" s="24" t="s">
         <v>39</v>
       </c>
@@ -3372,7 +3379,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
-      <c r="L24" s="50"/>
+      <c r="L24" s="51"/>
       <c r="M24" s="24" t="s">
         <v>40</v>
       </c>
@@ -3403,7 +3410,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
-      <c r="L25" s="50"/>
+      <c r="L25" s="51"/>
       <c r="M25" s="24" t="s">
         <v>41</v>
       </c>
@@ -3434,7 +3441,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
-      <c r="L26" s="50"/>
+      <c r="L26" s="51"/>
       <c r="M26" s="24" t="s">
         <v>42</v>
       </c>
@@ -3465,7 +3472,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
-      <c r="L27" s="50"/>
+      <c r="L27" s="51"/>
       <c r="M27" s="24" t="s">
         <v>43</v>
       </c>
@@ -3496,7 +3503,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
-      <c r="L28" s="51"/>
+      <c r="L28" s="52"/>
       <c r="M28" s="28" t="s">
         <v>36</v>
       </c>
@@ -3548,6 +3555,801 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:L28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3428343B-9D13-2A4F-B3EB-C7B0AA8DBC5D}">
+  <dimension ref="A1:S64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>27</v>
+      </c>
+      <c r="B5" s="38">
+        <f t="shared" ref="B5:B10" si="0">P22/100</f>
+        <v>0.17300000000000001</v>
+      </c>
+      <c r="C5">
+        <f>SUM(E5:K5)</f>
+        <v>24653</v>
+      </c>
+      <c r="D5">
+        <f>B5*C5</f>
+        <v>4264.9690000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E10" si="1">B20</f>
+        <v>4103</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F10" si="2">B21</f>
+        <v>2981</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G10" si="3">B22</f>
+        <v>2629</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H10" si="4">B23</f>
+        <v>3535</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I10" si="5">B24</f>
+        <v>4174</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" ref="J5:J10" si="6">B25</f>
+        <v>3674</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" ref="K5:K10" si="7">B26</f>
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>28</v>
+      </c>
+      <c r="B6" s="38">
+        <f t="shared" si="0"/>
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C10" si="8">SUM(E6:K6)</f>
+        <v>23860</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D10" si="9">B6*C6</f>
+        <v>3435.8400000000006</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>2981</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>2629</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
+        <v>3535</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="4"/>
+        <v>4174</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="5"/>
+        <v>3674</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="6"/>
+        <v>3557</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="7"/>
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>29</v>
+      </c>
+      <c r="B7" s="38">
+        <f t="shared" si="0"/>
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="8"/>
+        <v>23454</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="9"/>
+        <v>3893.364</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>2629</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>3535</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>4174</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="4"/>
+        <v>3674</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="5"/>
+        <v>3557</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="6"/>
+        <v>3310</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="7"/>
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>30</v>
+      </c>
+      <c r="B8" s="38">
+        <f t="shared" si="0"/>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="8"/>
+        <v>23177</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="9"/>
+        <v>4102.3289999999997</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>3535</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>4174</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="3"/>
+        <v>3674</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="4"/>
+        <v>3557</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="5"/>
+        <v>3310</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="6"/>
+        <v>2575</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="7"/>
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>31</v>
+      </c>
+      <c r="B9" s="38">
+        <f t="shared" si="0"/>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="8"/>
+        <v>22751</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="9"/>
+        <v>5824.2560000000003</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>4174</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>3674</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="3"/>
+        <v>3557</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="4"/>
+        <v>3310</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="5"/>
+        <v>2575</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="6"/>
+        <v>2352</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="7"/>
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="38">
+        <f t="shared" si="0"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="8"/>
+        <v>20830</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="9"/>
+        <v>1749.72</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>3674</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>3557</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="3"/>
+        <v>3310</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="4"/>
+        <v>2575</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="5"/>
+        <v>2352</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="6"/>
+        <v>3109</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="7"/>
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D11" s="39">
+        <f>SUM(D5:D10)</f>
+        <v>23270.478000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="47">
+        <f>D11/7</f>
+        <v>3324.3540000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4767</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5">
+        <v>4015</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4605</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5">
+        <v>5376</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5">
+        <v>4873</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5">
+        <v>4602</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5">
+        <v>4103</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+    </row>
+    <row r="21" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2981</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="L21" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="49"/>
+      <c r="N21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2629</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="L22" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22">
+        <v>27</v>
+      </c>
+      <c r="N22">
+        <v>1141234</v>
+      </c>
+      <c r="O22">
+        <v>17.3</v>
+      </c>
+      <c r="P22">
+        <v>17.3</v>
+      </c>
+      <c r="Q22">
+        <v>25.7</v>
+      </c>
+      <c r="S22" s="40"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3535</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="L23" s="51"/>
+      <c r="M23">
+        <v>28</v>
+      </c>
+      <c r="N23">
+        <v>944839</v>
+      </c>
+      <c r="O23">
+        <v>14.4</v>
+      </c>
+      <c r="P23">
+        <v>14.4</v>
+      </c>
+      <c r="Q23">
+        <v>40.1</v>
+      </c>
+      <c r="S23" s="40"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5">
+        <v>4174</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="L24" s="51"/>
+      <c r="M24">
+        <v>29</v>
+      </c>
+      <c r="N24">
+        <v>1093785</v>
+      </c>
+      <c r="O24">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="P24">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="Q24">
+        <v>56.7</v>
+      </c>
+      <c r="S24" s="40"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>26</v>
+      </c>
+      <c r="B25" s="5">
+        <v>3674</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="L25" s="51"/>
+      <c r="M25">
+        <v>30</v>
+      </c>
+      <c r="N25">
+        <v>1165276</v>
+      </c>
+      <c r="O25">
+        <v>17.7</v>
+      </c>
+      <c r="P25">
+        <v>17.7</v>
+      </c>
+      <c r="Q25">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="S25" s="40"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>27</v>
+      </c>
+      <c r="B26" s="5">
+        <v>3557</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="5"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="L26" s="51"/>
+      <c r="M26">
+        <v>31</v>
+      </c>
+      <c r="N26">
+        <v>1685610</v>
+      </c>
+      <c r="O26">
+        <v>25.6</v>
+      </c>
+      <c r="P26">
+        <v>25.6</v>
+      </c>
+      <c r="Q26">
+        <v>100</v>
+      </c>
+      <c r="S26" s="40"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>28</v>
+      </c>
+      <c r="B27" s="5">
+        <v>3310</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="5"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="L27" s="51"/>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>550131</v>
+      </c>
+      <c r="O27">
+        <v>8.4</v>
+      </c>
+      <c r="P27">
+        <v>8.4</v>
+      </c>
+      <c r="Q27">
+        <v>8.4</v>
+      </c>
+      <c r="S27" s="40"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2575</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="5"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="L28" s="52"/>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28">
+        <v>6580875</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+      <c r="P28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>30</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2352</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="5"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>31</v>
+      </c>
+      <c r="B30" s="5">
+        <v>3109</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="5"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2253</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Codes/Calcul_PCR_Moyen_INSPQ.xlsx
+++ b/Codes/Calcul_PCR_Moyen_INSPQ.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/IngridPeignier/Nextcloud/Enquete_COVID/Rapport/Semaine 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/IngridPeignier/Nextcloud/Enquete_COVID/Rapport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CE441D-1F64-7346-A625-E6897478E27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F0D98-2EB9-DC40-A4DD-E7B38142B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35060" yWindow="-4780" windowWidth="26920" windowHeight="16560" activeTab="2" xr2:uid="{F3F7B167-FBC9-3A4F-92DB-865B14393AA1}"/>
+    <workbookView xWindow="4780" yWindow="2560" windowWidth="26920" windowHeight="16560" activeTab="4" xr2:uid="{F3F7B167-FBC9-3A4F-92DB-865B14393AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sem1" sheetId="1" r:id="rId1"/>
     <sheet name="Sem2" sheetId="2" r:id="rId2"/>
     <sheet name="Sem 3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sem 4" sheetId="5" r:id="rId4"/>
+    <sheet name="sem 5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
   <si>
     <t>Calcul PCR moyen</t>
   </si>
@@ -193,6 +195,12 @@
   <si>
     <t>Système</t>
   </si>
+  <si>
+    <t>Source : https://www.inspq.qc.ca/covid-19/donnees extrait le 9 février 2022</t>
+  </si>
+  <si>
+    <t>cas/jour</t>
+  </si>
 </sst>
 </file>
 
@@ -309,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -532,6 +540,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF152935"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -562,7 +579,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -671,6 +688,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -689,6 +707,16 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -1402,10 +1430,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="49"/>
+      <c r="I18" s="50"/>
       <c r="J18" s="17" t="s">
         <v>31</v>
       </c>
@@ -1428,7 +1456,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="51" t="s">
         <v>35</v>
       </c>
       <c r="I19" s="20" t="s">
@@ -1456,7 +1484,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="H20" s="51"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="24" t="s">
         <v>45</v>
       </c>
@@ -1482,7 +1510,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="H21" s="51"/>
+      <c r="H21" s="52"/>
       <c r="I21" s="24" t="s">
         <v>46</v>
       </c>
@@ -1508,7 +1536,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="H22" s="51"/>
+      <c r="H22" s="52"/>
       <c r="I22" s="24" t="s">
         <v>47</v>
       </c>
@@ -1534,7 +1562,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="H23" s="51"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="24" t="s">
         <v>48</v>
       </c>
@@ -1560,7 +1588,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="H24" s="51"/>
+      <c r="H24" s="52"/>
       <c r="I24" s="24" t="s">
         <v>49</v>
       </c>
@@ -1586,7 +1614,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="H25" s="51"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="41" t="s">
         <v>36</v>
       </c>
@@ -1634,10 +1662,10 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="53"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="29">
         <v>13161750.000000056</v>
       </c>
@@ -3285,10 +3313,10 @@
       <c r="H21" s="46"/>
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
-      <c r="L21" s="48" t="s">
+      <c r="L21" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="49"/>
+      <c r="M21" s="50"/>
       <c r="N21" s="17" t="s">
         <v>31</v>
       </c>
@@ -3315,7 +3343,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
       <c r="J22" s="46"/>
-      <c r="L22" s="50" t="s">
+      <c r="L22" s="51" t="s">
         <v>35</v>
       </c>
       <c r="M22" s="20" t="s">
@@ -3348,7 +3376,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
-      <c r="L23" s="51"/>
+      <c r="L23" s="52"/>
       <c r="M23" s="24" t="s">
         <v>39</v>
       </c>
@@ -3379,7 +3407,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
-      <c r="L24" s="51"/>
+      <c r="L24" s="52"/>
       <c r="M24" s="24" t="s">
         <v>40</v>
       </c>
@@ -3410,7 +3438,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
-      <c r="L25" s="51"/>
+      <c r="L25" s="52"/>
       <c r="M25" s="24" t="s">
         <v>41</v>
       </c>
@@ -3441,7 +3469,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
-      <c r="L26" s="51"/>
+      <c r="L26" s="52"/>
       <c r="M26" s="24" t="s">
         <v>42</v>
       </c>
@@ -3472,7 +3500,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
-      <c r="L27" s="51"/>
+      <c r="L27" s="52"/>
       <c r="M27" s="24" t="s">
         <v>43</v>
       </c>
@@ -3503,7 +3531,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
-      <c r="L28" s="52"/>
+      <c r="L28" s="53"/>
       <c r="M28" s="28" t="s">
         <v>36</v>
       </c>
@@ -3569,8 +3597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3428343B-9D13-2A4F-B3EB-C7B0AA8DBC5D}">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3977,10 +4005,10 @@
       <c r="H21" s="46"/>
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
-      <c r="L21" s="48" t="s">
+      <c r="L21" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="49"/>
+      <c r="M21" s="50"/>
       <c r="N21" s="17" t="s">
         <v>31</v>
       </c>
@@ -4007,7 +4035,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
       <c r="J22" s="46"/>
-      <c r="L22" s="50" t="s">
+      <c r="L22" s="51" t="s">
         <v>35</v>
       </c>
       <c r="M22">
@@ -4040,7 +4068,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
-      <c r="L23" s="51"/>
+      <c r="L23" s="52"/>
       <c r="M23">
         <v>28</v>
       </c>
@@ -4071,7 +4099,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
-      <c r="L24" s="51"/>
+      <c r="L24" s="52"/>
       <c r="M24">
         <v>29</v>
       </c>
@@ -4102,7 +4130,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
-      <c r="L25" s="51"/>
+      <c r="L25" s="52"/>
       <c r="M25">
         <v>30</v>
       </c>
@@ -4133,7 +4161,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
-      <c r="L26" s="51"/>
+      <c r="L26" s="52"/>
       <c r="M26">
         <v>31</v>
       </c>
@@ -4164,7 +4192,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
-      <c r="L27" s="51"/>
+      <c r="L27" s="52"/>
       <c r="M27">
         <v>1</v>
       </c>
@@ -4195,7 +4223,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
-      <c r="L28" s="52"/>
+      <c r="L28" s="53"/>
       <c r="M28" t="s">
         <v>36</v>
       </c>
@@ -4301,6 +4329,1611 @@
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:L28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C8233-BB2D-E846-836C-0DDBFC690291}">
+  <dimension ref="A1:S64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="38">
+        <f>P22/100</f>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C5">
+        <f>SUM(E5:K5)</f>
+        <v>22083</v>
+      </c>
+      <c r="D5">
+        <f>B5*C5</f>
+        <v>3798.2759999999998</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E10" si="0">B20</f>
+        <v>3356</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F10" si="1">B21</f>
+        <v>2616</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G10" si="2">B22</f>
+        <v>2373</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H10" si="3">B23</f>
+        <v>3234</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I10" si="4">B24</f>
+        <v>3789</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" ref="J5:J10" si="5">B25</f>
+        <v>3727</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" ref="K5:K10" si="6">B26</f>
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="38">
+        <f t="shared" ref="B6:B10" si="7">P23/100</f>
+        <v>0.155</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C10" si="8">SUM(E6:K6)</f>
+        <v>21645</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D10" si="9">B6*C6</f>
+        <v>3354.9749999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>2616</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>2373</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>3234</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>3789</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="4"/>
+        <v>3727</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="5"/>
+        <v>2988</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="6"/>
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38">
+        <f t="shared" si="7"/>
+        <v>0.18100000000000002</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="8"/>
+        <v>21223</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="9"/>
+        <v>3841.3630000000003</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>2373</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>3234</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>3789</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="3"/>
+        <v>3727</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="4"/>
+        <v>2988</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="5"/>
+        <v>2918</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="6"/>
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="38">
+        <f t="shared" si="7"/>
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="8"/>
+        <v>20862</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="9"/>
+        <v>4255.848</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>3234</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>3789</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="2"/>
+        <v>3727</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="3"/>
+        <v>2988</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="4"/>
+        <v>2918</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="5"/>
+        <v>2194</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="6"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38">
+        <f t="shared" si="7"/>
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="8"/>
+        <v>20640</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="9"/>
+        <v>4210.5599999999995</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>3789</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>3727</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="2"/>
+        <v>2988</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="3"/>
+        <v>2918</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="4"/>
+        <v>2194</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="5"/>
+        <v>2012</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="6"/>
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="38">
+        <f t="shared" si="7"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="8"/>
+        <v>18706</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="9"/>
+        <v>1571.3040000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>3727</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>2988</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="2"/>
+        <v>2918</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="3"/>
+        <v>2194</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="4"/>
+        <v>2012</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="5"/>
+        <v>3012</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="6"/>
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D11" s="39">
+        <f>SUM(D5:D10)</f>
+        <v>21032.326000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="47">
+        <f>D11/7</f>
+        <v>3004.6179999999999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2984</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2626</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3536</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5">
+        <v>4185</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3682</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>27</v>
+      </c>
+      <c r="B19" s="5">
+        <v>3566</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>28</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3356</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+    </row>
+    <row r="21" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2616</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="L21" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="50"/>
+      <c r="N21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2373</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="L22" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>1129664</v>
+      </c>
+      <c r="O22">
+        <v>17.2</v>
+      </c>
+      <c r="P22">
+        <v>17.2</v>
+      </c>
+      <c r="Q22">
+        <v>17.2</v>
+      </c>
+      <c r="S22" s="40"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>31</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3234</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="L23" s="52"/>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>1018967</v>
+      </c>
+      <c r="O23">
+        <v>15.5</v>
+      </c>
+      <c r="P23">
+        <v>15.5</v>
+      </c>
+      <c r="Q23">
+        <v>32.6</v>
+      </c>
+      <c r="S23" s="40"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3789</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="L24" s="52"/>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>1190539</v>
+      </c>
+      <c r="O24">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="P24">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Q24">
+        <v>50.7</v>
+      </c>
+      <c r="S24" s="40"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5">
+        <v>3727</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="L25" s="52"/>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>1344519</v>
+      </c>
+      <c r="O25">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="P25">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Q25">
+        <v>71.2</v>
+      </c>
+      <c r="S25" s="40"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2988</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="5"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="L26" s="52"/>
+      <c r="M26">
+        <v>7</v>
+      </c>
+      <c r="N26">
+        <v>1345788</v>
+      </c>
+      <c r="O26">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="P26">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Q26">
+        <v>91.6</v>
+      </c>
+      <c r="S26" s="40"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2918</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="5"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="L27" s="52"/>
+      <c r="M27">
+        <v>8</v>
+      </c>
+      <c r="N27">
+        <v>551398</v>
+      </c>
+      <c r="O27">
+        <v>8.4</v>
+      </c>
+      <c r="P27">
+        <v>8.4</v>
+      </c>
+      <c r="Q27">
+        <v>100</v>
+      </c>
+      <c r="S27" s="40"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2194</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="5"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="L28" s="53"/>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28">
+        <v>6580875</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+      <c r="P28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2012</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="5"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>7</v>
+      </c>
+      <c r="B30" s="5">
+        <v>3012</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="5"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>8</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1855</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:L28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7261BBC0-45D5-9145-81A2-0A3D2EC42621}">
+  <dimension ref="A1:S64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="38">
+        <f>P22/100</f>
+        <v>0.193</v>
+      </c>
+      <c r="C5">
+        <f>SUM(E5:K5)</f>
+        <v>18691</v>
+      </c>
+      <c r="D5">
+        <f>B5*C5</f>
+        <v>3607.3630000000003</v>
+      </c>
+      <c r="E5" s="1">
+        <f>B20</f>
+        <v>2948</v>
+      </c>
+      <c r="F5" s="1">
+        <f>B21</f>
+        <v>2200</v>
+      </c>
+      <c r="G5" s="1">
+        <f>B22</f>
+        <v>2025</v>
+      </c>
+      <c r="H5" s="1">
+        <f>B23</f>
+        <v>3050</v>
+      </c>
+      <c r="I5" s="1">
+        <f>B24</f>
+        <v>3152</v>
+      </c>
+      <c r="J5" s="5">
+        <f>B25</f>
+        <v>2771</v>
+      </c>
+      <c r="K5" s="5">
+        <f>B26</f>
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" s="38">
+        <f t="shared" ref="B6:B10" si="0">P23/100</f>
+        <v>0.124</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C10" si="1">SUM(E6:K6)</f>
+        <v>18153</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D10" si="2">B6*C6</f>
+        <v>2250.9720000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <f>B21</f>
+        <v>2200</v>
+      </c>
+      <c r="F6" s="1">
+        <f>B22</f>
+        <v>2025</v>
+      </c>
+      <c r="G6" s="1">
+        <f>B23</f>
+        <v>3050</v>
+      </c>
+      <c r="H6" s="1">
+        <f>B24</f>
+        <v>3152</v>
+      </c>
+      <c r="I6" s="5">
+        <f>B25</f>
+        <v>2771</v>
+      </c>
+      <c r="J6" s="5">
+        <f>B26</f>
+        <v>2545</v>
+      </c>
+      <c r="K6" s="5">
+        <f>B27</f>
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" s="38">
+        <f t="shared" si="0"/>
+        <v>0.22899999999999998</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>17445</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>3994.9049999999997</v>
+      </c>
+      <c r="E7" s="1">
+        <f>B22</f>
+        <v>2025</v>
+      </c>
+      <c r="F7" s="1">
+        <f>B23</f>
+        <v>3050</v>
+      </c>
+      <c r="G7" s="1">
+        <f>B24</f>
+        <v>3152</v>
+      </c>
+      <c r="H7" s="5">
+        <f>B25</f>
+        <v>2771</v>
+      </c>
+      <c r="I7" s="5">
+        <f>B26</f>
+        <v>2545</v>
+      </c>
+      <c r="J7" s="5">
+        <f>B27</f>
+        <v>2410</v>
+      </c>
+      <c r="K7" s="5">
+        <f>B28</f>
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" s="38">
+        <f t="shared" si="0"/>
+        <v>0.182</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>16915</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>3078.5299999999997</v>
+      </c>
+      <c r="E8" s="1">
+        <f>B23</f>
+        <v>3050</v>
+      </c>
+      <c r="F8" s="1">
+        <f>B24</f>
+        <v>3152</v>
+      </c>
+      <c r="G8" s="5">
+        <f>B25</f>
+        <v>2771</v>
+      </c>
+      <c r="H8" s="5">
+        <f>B26</f>
+        <v>2545</v>
+      </c>
+      <c r="I8" s="5">
+        <f>B27</f>
+        <v>2410</v>
+      </c>
+      <c r="J8" s="5">
+        <f>B28</f>
+        <v>1492</v>
+      </c>
+      <c r="K8" s="5">
+        <f>B29</f>
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9" s="38">
+        <f t="shared" si="0"/>
+        <v>0.17800000000000002</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>15901</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>2830.3780000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <f>B24</f>
+        <v>3152</v>
+      </c>
+      <c r="F9" s="5">
+        <f>B25</f>
+        <v>2771</v>
+      </c>
+      <c r="G9" s="5">
+        <f>B26</f>
+        <v>2545</v>
+      </c>
+      <c r="H9" s="5">
+        <f>B27</f>
+        <v>2410</v>
+      </c>
+      <c r="I9" s="5">
+        <f>B28</f>
+        <v>1492</v>
+      </c>
+      <c r="J9" s="5">
+        <f>B29</f>
+        <v>1495</v>
+      </c>
+      <c r="K9" s="5">
+        <f>B30</f>
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10" s="38">
+        <f t="shared" si="0"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>13980</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>1328.1</v>
+      </c>
+      <c r="E10" s="5">
+        <f>B25</f>
+        <v>2771</v>
+      </c>
+      <c r="F10" s="5">
+        <f>B26</f>
+        <v>2545</v>
+      </c>
+      <c r="G10" s="5">
+        <f>B27</f>
+        <v>2410</v>
+      </c>
+      <c r="H10" s="5">
+        <f>B28</f>
+        <v>1492</v>
+      </c>
+      <c r="I10" s="5">
+        <f>B29</f>
+        <v>1495</v>
+      </c>
+      <c r="J10" s="5">
+        <f>B30</f>
+        <v>2036</v>
+      </c>
+      <c r="K10" s="5">
+        <f>B31</f>
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D11" s="39">
+        <f>SUM(D5:D10)</f>
+        <v>17090.248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="47">
+        <f>D11/7</f>
+        <v>2441.4639999999999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>29</v>
+      </c>
+      <c r="B14" s="58">
+        <v>2618</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>30</v>
+      </c>
+      <c r="B15" s="58">
+        <v>2379</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>31</v>
+      </c>
+      <c r="B16" s="58">
+        <v>3238</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="58">
+        <v>3789</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="58">
+        <v>3741</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="58">
+        <v>3011</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="58">
+        <v>2948</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="5"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+    </row>
+    <row r="21" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="58">
+        <v>2200</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="5"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="L21" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="49"/>
+      <c r="N21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="58">
+        <v>2025</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="5"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="L22" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>1268371</v>
+      </c>
+      <c r="O22">
+        <v>19.3</v>
+      </c>
+      <c r="P22">
+        <v>19.3</v>
+      </c>
+      <c r="Q22">
+        <v>19.3</v>
+      </c>
+      <c r="S22" s="40"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" s="58">
+        <v>3050</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="5"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="L23" s="56"/>
+      <c r="M23">
+        <v>11</v>
+      </c>
+      <c r="N23">
+        <v>814027</v>
+      </c>
+      <c r="O23">
+        <v>12.4</v>
+      </c>
+      <c r="P23">
+        <v>12.4</v>
+      </c>
+      <c r="Q23">
+        <v>31.6</v>
+      </c>
+      <c r="S23" s="40"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="58">
+        <v>3152</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="5"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="L24" s="56"/>
+      <c r="M24">
+        <v>12</v>
+      </c>
+      <c r="N24">
+        <v>1508328</v>
+      </c>
+      <c r="O24">
+        <v>22.9</v>
+      </c>
+      <c r="P24">
+        <v>22.9</v>
+      </c>
+      <c r="Q24">
+        <v>54.6</v>
+      </c>
+      <c r="S24" s="40"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" s="58">
+        <v>2771</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="5"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="L25" s="56"/>
+      <c r="M25">
+        <v>13</v>
+      </c>
+      <c r="N25">
+        <v>1194963</v>
+      </c>
+      <c r="O25">
+        <v>18.2</v>
+      </c>
+      <c r="P25">
+        <v>18.2</v>
+      </c>
+      <c r="Q25">
+        <v>72.7</v>
+      </c>
+      <c r="S25" s="40"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" s="58">
+        <v>2545</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="5"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="L26" s="56"/>
+      <c r="M26">
+        <v>14</v>
+      </c>
+      <c r="N26">
+        <v>1169970</v>
+      </c>
+      <c r="O26">
+        <v>17.8</v>
+      </c>
+      <c r="P26">
+        <v>17.8</v>
+      </c>
+      <c r="Q26">
+        <v>90.5</v>
+      </c>
+      <c r="S26" s="40"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" s="58">
+        <v>2410</v>
+      </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="5"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="L27" s="56"/>
+      <c r="M27">
+        <v>15</v>
+      </c>
+      <c r="N27">
+        <v>625216</v>
+      </c>
+      <c r="O27">
+        <v>9.5</v>
+      </c>
+      <c r="P27">
+        <v>9.5</v>
+      </c>
+      <c r="Q27">
+        <v>100</v>
+      </c>
+      <c r="S27" s="40"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28" s="58">
+        <v>1492</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="5"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="L28" s="57"/>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28">
+        <v>6580875</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+      <c r="P28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" s="58">
+        <v>1495</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="5"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30" s="58">
+        <v>2036</v>
+      </c>
+      <c r="C30" s="58"/>
+      <c r="D30" s="5"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31" s="58">
+        <v>1231</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">

--- a/Codes/Calcul_PCR_Moyen_INSPQ.xlsx
+++ b/Codes/Calcul_PCR_Moyen_INSPQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/IngridPeignier/Nextcloud/Enquete_COVID/Rapport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F0D98-2EB9-DC40-A4DD-E7B38142B0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3654DF-9501-1A49-B8F5-C722721411DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="2560" windowWidth="26920" windowHeight="16560" activeTab="4" xr2:uid="{F3F7B167-FBC9-3A4F-92DB-865B14393AA1}"/>
+    <workbookView xWindow="32700" yWindow="-4640" windowWidth="23040" windowHeight="16560" activeTab="5" xr2:uid="{F3F7B167-FBC9-3A4F-92DB-865B14393AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sem1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sem 3" sheetId="4" r:id="rId3"/>
     <sheet name="Sem 4" sheetId="5" r:id="rId4"/>
     <sheet name="sem 5" sheetId="6" r:id="rId5"/>
+    <sheet name="sem 6" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="55">
   <si>
     <t>Calcul PCR moyen</t>
   </si>
@@ -200,6 +201,9 @@
   </si>
   <si>
     <t>cas/jour</t>
+  </si>
+  <si>
+    <t>Source : https://www.inspq.qc.ca/covid-19/donnees extrait le 23 février 2022</t>
   </si>
 </sst>
 </file>
@@ -579,7 +583,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -689,6 +693,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -716,7 +722,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -1430,10 +1435,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="50"/>
+      <c r="I18" s="52"/>
       <c r="J18" s="17" t="s">
         <v>31</v>
       </c>
@@ -1456,7 +1461,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="H19" s="51" t="s">
+      <c r="H19" s="53" t="s">
         <v>35</v>
       </c>
       <c r="I19" s="20" t="s">
@@ -1484,7 +1489,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="H20" s="52"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="24" t="s">
         <v>45</v>
       </c>
@@ -1510,7 +1515,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="H21" s="52"/>
+      <c r="H21" s="54"/>
       <c r="I21" s="24" t="s">
         <v>46</v>
       </c>
@@ -1536,7 +1541,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="H22" s="52"/>
+      <c r="H22" s="54"/>
       <c r="I22" s="24" t="s">
         <v>47</v>
       </c>
@@ -1562,7 +1567,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="H23" s="52"/>
+      <c r="H23" s="54"/>
       <c r="I23" s="24" t="s">
         <v>48</v>
       </c>
@@ -1588,7 +1593,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="H24" s="52"/>
+      <c r="H24" s="54"/>
       <c r="I24" s="24" t="s">
         <v>49</v>
       </c>
@@ -1614,7 +1619,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="H25" s="52"/>
+      <c r="H25" s="54"/>
       <c r="I25" s="41" t="s">
         <v>36</v>
       </c>
@@ -1662,10 +1667,10 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="54"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="29">
         <v>13161750.000000056</v>
       </c>
@@ -3313,10 +3318,10 @@
       <c r="H21" s="46"/>
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
-      <c r="L21" s="49" t="s">
+      <c r="L21" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="50"/>
+      <c r="M21" s="52"/>
       <c r="N21" s="17" t="s">
         <v>31</v>
       </c>
@@ -3343,7 +3348,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
       <c r="J22" s="46"/>
-      <c r="L22" s="51" t="s">
+      <c r="L22" s="53" t="s">
         <v>35</v>
       </c>
       <c r="M22" s="20" t="s">
@@ -3376,7 +3381,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
-      <c r="L23" s="52"/>
+      <c r="L23" s="54"/>
       <c r="M23" s="24" t="s">
         <v>39</v>
       </c>
@@ -3407,7 +3412,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
-      <c r="L24" s="52"/>
+      <c r="L24" s="54"/>
       <c r="M24" s="24" t="s">
         <v>40</v>
       </c>
@@ -3438,7 +3443,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
-      <c r="L25" s="52"/>
+      <c r="L25" s="54"/>
       <c r="M25" s="24" t="s">
         <v>41</v>
       </c>
@@ -3469,7 +3474,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
-      <c r="L26" s="52"/>
+      <c r="L26" s="54"/>
       <c r="M26" s="24" t="s">
         <v>42</v>
       </c>
@@ -3500,7 +3505,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
-      <c r="L27" s="52"/>
+      <c r="L27" s="54"/>
       <c r="M27" s="24" t="s">
         <v>43</v>
       </c>
@@ -3531,7 +3536,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
-      <c r="L28" s="53"/>
+      <c r="L28" s="55"/>
       <c r="M28" s="28" t="s">
         <v>36</v>
       </c>
@@ -4005,10 +4010,10 @@
       <c r="H21" s="46"/>
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
-      <c r="L21" s="49" t="s">
+      <c r="L21" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="50"/>
+      <c r="M21" s="52"/>
       <c r="N21" s="17" t="s">
         <v>31</v>
       </c>
@@ -4035,7 +4040,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
       <c r="J22" s="46"/>
-      <c r="L22" s="51" t="s">
+      <c r="L22" s="53" t="s">
         <v>35</v>
       </c>
       <c r="M22">
@@ -4068,7 +4073,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
-      <c r="L23" s="52"/>
+      <c r="L23" s="54"/>
       <c r="M23">
         <v>28</v>
       </c>
@@ -4099,7 +4104,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
-      <c r="L24" s="52"/>
+      <c r="L24" s="54"/>
       <c r="M24">
         <v>29</v>
       </c>
@@ -4130,7 +4135,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
-      <c r="L25" s="52"/>
+      <c r="L25" s="54"/>
       <c r="M25">
         <v>30</v>
       </c>
@@ -4161,7 +4166,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
-      <c r="L26" s="52"/>
+      <c r="L26" s="54"/>
       <c r="M26">
         <v>31</v>
       </c>
@@ -4192,7 +4197,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
-      <c r="L27" s="52"/>
+      <c r="L27" s="54"/>
       <c r="M27">
         <v>1</v>
       </c>
@@ -4223,7 +4228,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
-      <c r="L28" s="53"/>
+      <c r="L28" s="55"/>
       <c r="M28" t="s">
         <v>36</v>
       </c>
@@ -4393,7 +4398,7 @@
   <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4744,7 +4749,7 @@
         <v>3536</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="50"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -4803,10 +4808,10 @@
       <c r="H21" s="46"/>
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
-      <c r="L21" s="49" t="s">
+      <c r="L21" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="50"/>
+      <c r="M21" s="52"/>
       <c r="N21" s="17" t="s">
         <v>31</v>
       </c>
@@ -4833,7 +4838,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
       <c r="J22" s="46"/>
-      <c r="L22" s="51" t="s">
+      <c r="L22" s="53" t="s">
         <v>35</v>
       </c>
       <c r="M22">
@@ -4866,7 +4871,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
-      <c r="L23" s="52"/>
+      <c r="L23" s="54"/>
       <c r="M23">
         <v>4</v>
       </c>
@@ -4898,7 +4903,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
-      <c r="L24" s="52"/>
+      <c r="L24" s="54"/>
       <c r="M24">
         <v>5</v>
       </c>
@@ -4929,7 +4934,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
-      <c r="L25" s="52"/>
+      <c r="L25" s="54"/>
       <c r="M25">
         <v>6</v>
       </c>
@@ -4960,7 +4965,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
-      <c r="L26" s="52"/>
+      <c r="L26" s="54"/>
       <c r="M26">
         <v>7</v>
       </c>
@@ -4991,7 +4996,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
-      <c r="L27" s="52"/>
+      <c r="L27" s="54"/>
       <c r="M27">
         <v>8</v>
       </c>
@@ -5022,7 +5027,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
-      <c r="L28" s="53"/>
+      <c r="L28" s="55"/>
       <c r="M28" t="s">
         <v>36</v>
       </c>
@@ -5195,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7261BBC0-45D5-9145-81A2-0A3D2EC42621}">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5248,31 +5253,31 @@
         <v>3607.3630000000003</v>
       </c>
       <c r="E5" s="1">
-        <f>B20</f>
+        <f t="shared" ref="E5:E10" si="0">B20</f>
         <v>2948</v>
       </c>
       <c r="F5" s="1">
-        <f>B21</f>
+        <f t="shared" ref="F5:F10" si="1">B21</f>
         <v>2200</v>
       </c>
       <c r="G5" s="1">
-        <f>B22</f>
+        <f t="shared" ref="G5:G10" si="2">B22</f>
         <v>2025</v>
       </c>
       <c r="H5" s="1">
-        <f>B23</f>
+        <f t="shared" ref="H5:H10" si="3">B23</f>
         <v>3050</v>
       </c>
       <c r="I5" s="1">
-        <f>B24</f>
+        <f t="shared" ref="I5:I10" si="4">B24</f>
         <v>3152</v>
       </c>
       <c r="J5" s="5">
-        <f>B25</f>
+        <f t="shared" ref="J5:J10" si="5">B25</f>
         <v>2771</v>
       </c>
       <c r="K5" s="5">
-        <f>B26</f>
+        <f t="shared" ref="K5:K10" si="6">B26</f>
         <v>2545</v>
       </c>
     </row>
@@ -5281,43 +5286,43 @@
         <v>11</v>
       </c>
       <c r="B6" s="38">
-        <f t="shared" ref="B6:B10" si="0">P23/100</f>
+        <f t="shared" ref="B6:B10" si="7">P23/100</f>
         <v>0.124</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C10" si="1">SUM(E6:K6)</f>
+        <f t="shared" ref="C6:C10" si="8">SUM(E6:K6)</f>
         <v>18153</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D10" si="2">B6*C6</f>
+        <f t="shared" ref="D6:D10" si="9">B6*C6</f>
         <v>2250.9720000000002</v>
       </c>
       <c r="E6" s="1">
-        <f>B21</f>
+        <f t="shared" si="0"/>
         <v>2200</v>
       </c>
       <c r="F6" s="1">
-        <f>B22</f>
+        <f t="shared" si="1"/>
         <v>2025</v>
       </c>
       <c r="G6" s="1">
-        <f>B23</f>
+        <f t="shared" si="2"/>
         <v>3050</v>
       </c>
       <c r="H6" s="1">
-        <f>B24</f>
+        <f t="shared" si="3"/>
         <v>3152</v>
       </c>
       <c r="I6" s="5">
-        <f>B25</f>
+        <f t="shared" si="4"/>
         <v>2771</v>
       </c>
       <c r="J6" s="5">
-        <f>B26</f>
+        <f t="shared" si="5"/>
         <v>2545</v>
       </c>
       <c r="K6" s="5">
-        <f>B27</f>
+        <f t="shared" si="6"/>
         <v>2410</v>
       </c>
     </row>
@@ -5326,43 +5331,43 @@
         <v>12</v>
       </c>
       <c r="B7" s="38">
+        <f t="shared" si="7"/>
+        <v>0.22899999999999998</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="8"/>
+        <v>17445</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="9"/>
+        <v>3994.9049999999997</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.22899999999999998</v>
-      </c>
-      <c r="C7">
+        <v>2025</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>17445</v>
-      </c>
-      <c r="D7">
+        <v>3050</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="2"/>
-        <v>3994.9049999999997</v>
-      </c>
-      <c r="E7" s="1">
-        <f>B22</f>
-        <v>2025</v>
-      </c>
-      <c r="F7" s="1">
-        <f>B23</f>
-        <v>3050</v>
-      </c>
-      <c r="G7" s="1">
-        <f>B24</f>
         <v>3152</v>
       </c>
       <c r="H7" s="5">
-        <f>B25</f>
+        <f t="shared" si="3"/>
         <v>2771</v>
       </c>
       <c r="I7" s="5">
-        <f>B26</f>
+        <f t="shared" si="4"/>
         <v>2545</v>
       </c>
       <c r="J7" s="5">
-        <f>B27</f>
+        <f t="shared" si="5"/>
         <v>2410</v>
       </c>
       <c r="K7" s="5">
-        <f>B28</f>
+        <f t="shared" si="6"/>
         <v>1492</v>
       </c>
     </row>
@@ -5371,43 +5376,43 @@
         <v>13</v>
       </c>
       <c r="B8" s="38">
+        <f t="shared" si="7"/>
+        <v>0.182</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="8"/>
+        <v>16915</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="9"/>
+        <v>3078.5299999999997</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>0.182</v>
-      </c>
-      <c r="C8">
+        <v>3050</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>16915</v>
-      </c>
-      <c r="D8">
+        <v>3152</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="2"/>
-        <v>3078.5299999999997</v>
-      </c>
-      <c r="E8" s="1">
-        <f>B23</f>
-        <v>3050</v>
-      </c>
-      <c r="F8" s="1">
-        <f>B24</f>
-        <v>3152</v>
-      </c>
-      <c r="G8" s="5">
-        <f>B25</f>
         <v>2771</v>
       </c>
       <c r="H8" s="5">
-        <f>B26</f>
+        <f t="shared" si="3"/>
         <v>2545</v>
       </c>
       <c r="I8" s="5">
-        <f>B27</f>
+        <f t="shared" si="4"/>
         <v>2410</v>
       </c>
       <c r="J8" s="5">
-        <f>B28</f>
+        <f t="shared" si="5"/>
         <v>1492</v>
       </c>
       <c r="K8" s="5">
-        <f>B29</f>
+        <f t="shared" si="6"/>
         <v>1495</v>
       </c>
     </row>
@@ -5416,43 +5421,43 @@
         <v>14</v>
       </c>
       <c r="B9" s="38">
+        <f t="shared" si="7"/>
+        <v>0.17800000000000002</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="8"/>
+        <v>15901</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="9"/>
+        <v>2830.3780000000002</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>0.17800000000000002</v>
-      </c>
-      <c r="C9">
+        <v>3152</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>15901</v>
-      </c>
-      <c r="D9">
+        <v>2771</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="2"/>
-        <v>2830.3780000000002</v>
-      </c>
-      <c r="E9" s="1">
-        <f>B24</f>
-        <v>3152</v>
-      </c>
-      <c r="F9" s="5">
-        <f>B25</f>
-        <v>2771</v>
-      </c>
-      <c r="G9" s="5">
-        <f>B26</f>
         <v>2545</v>
       </c>
       <c r="H9" s="5">
-        <f>B27</f>
+        <f t="shared" si="3"/>
         <v>2410</v>
       </c>
       <c r="I9" s="5">
-        <f>B28</f>
+        <f t="shared" si="4"/>
         <v>1492</v>
       </c>
       <c r="J9" s="5">
-        <f>B29</f>
+        <f t="shared" si="5"/>
         <v>1495</v>
       </c>
       <c r="K9" s="5">
-        <f>B30</f>
+        <f t="shared" si="6"/>
         <v>2036</v>
       </c>
     </row>
@@ -5461,43 +5466,43 @@
         <v>15</v>
       </c>
       <c r="B10" s="38">
+        <f t="shared" si="7"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="8"/>
+        <v>13980</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="9"/>
+        <v>1328.1</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C10">
+        <v>2771</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>13980</v>
-      </c>
-      <c r="D10">
+        <v>2545</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="2"/>
-        <v>1328.1</v>
-      </c>
-      <c r="E10" s="5">
-        <f>B25</f>
-        <v>2771</v>
-      </c>
-      <c r="F10" s="5">
-        <f>B26</f>
-        <v>2545</v>
-      </c>
-      <c r="G10" s="5">
-        <f>B27</f>
         <v>2410</v>
       </c>
       <c r="H10" s="5">
-        <f>B28</f>
+        <f t="shared" si="3"/>
         <v>1492</v>
       </c>
       <c r="I10" s="5">
-        <f>B29</f>
+        <f t="shared" si="4"/>
         <v>1495</v>
       </c>
       <c r="J10" s="5">
-        <f>B30</f>
+        <f t="shared" si="5"/>
         <v>2036</v>
       </c>
       <c r="K10" s="5">
-        <f>B31</f>
+        <f t="shared" si="6"/>
         <v>1231</v>
       </c>
     </row>
@@ -5523,70 +5528,70 @@
       <c r="A14" s="1">
         <v>29</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="49">
         <v>2618</v>
       </c>
-      <c r="C14" s="58"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>30</v>
       </c>
-      <c r="B15" s="58">
+      <c r="B15" s="49">
         <v>2379</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>31</v>
       </c>
-      <c r="B16" s="58">
+      <c r="B16" s="49">
         <v>3238</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="49">
         <v>3789</v>
       </c>
-      <c r="C17" s="58"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="49">
         <v>3741</v>
       </c>
-      <c r="C18" s="58"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="58">
+      <c r="B19" s="49">
         <v>3011</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="58">
+      <c r="B20" s="49">
         <v>2948</v>
       </c>
-      <c r="C20" s="58"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="5"/>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
@@ -5597,19 +5602,19 @@
       <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="49">
         <v>2200</v>
       </c>
-      <c r="C21" s="58"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="5"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
       <c r="I21" s="46"/>
       <c r="J21" s="46"/>
-      <c r="L21" s="49" t="s">
+      <c r="L21" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="49"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="17" t="s">
         <v>31</v>
       </c>
@@ -5627,16 +5632,16 @@
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="58">
+      <c r="B22" s="49">
         <v>2025</v>
       </c>
-      <c r="C22" s="58"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="5"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
       <c r="J22" s="46"/>
-      <c r="L22" s="55" t="s">
+      <c r="L22" s="57" t="s">
         <v>35</v>
       </c>
       <c r="M22">
@@ -5660,16 +5665,16 @@
       <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="58">
+      <c r="B23" s="49">
         <v>3050</v>
       </c>
-      <c r="C23" s="58"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="5"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
-      <c r="L23" s="56"/>
+      <c r="L23" s="58"/>
       <c r="M23">
         <v>11</v>
       </c>
@@ -5691,17 +5696,17 @@
       <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="58">
+      <c r="B24" s="49">
         <v>3152</v>
       </c>
-      <c r="C24" s="58"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="5"/>
       <c r="F24" s="48"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
-      <c r="L24" s="56"/>
+      <c r="L24" s="58"/>
       <c r="M24">
         <v>12</v>
       </c>
@@ -5723,16 +5728,16 @@
       <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="58">
+      <c r="B25" s="49">
         <v>2771</v>
       </c>
-      <c r="C25" s="58"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="5"/>
       <c r="G25" s="46"/>
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
       <c r="J25" s="46"/>
-      <c r="L25" s="56"/>
+      <c r="L25" s="58"/>
       <c r="M25">
         <v>13</v>
       </c>
@@ -5754,16 +5759,16 @@
       <c r="A26">
         <v>10</v>
       </c>
-      <c r="B26" s="58">
+      <c r="B26" s="49">
         <v>2545</v>
       </c>
-      <c r="C26" s="58"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="5"/>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
-      <c r="L26" s="56"/>
+      <c r="L26" s="58"/>
       <c r="M26">
         <v>14</v>
       </c>
@@ -5785,16 +5790,16 @@
       <c r="A27">
         <v>11</v>
       </c>
-      <c r="B27" s="58">
+      <c r="B27" s="49">
         <v>2410</v>
       </c>
-      <c r="C27" s="58"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="5"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
-      <c r="L27" s="56"/>
+      <c r="L27" s="58"/>
       <c r="M27">
         <v>15</v>
       </c>
@@ -5816,16 +5821,16 @@
       <c r="A28">
         <v>12</v>
       </c>
-      <c r="B28" s="58">
+      <c r="B28" s="49">
         <v>1492</v>
       </c>
-      <c r="C28" s="58"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="5"/>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
-      <c r="L28" s="57"/>
+      <c r="L28" s="59"/>
       <c r="M28" t="s">
         <v>36</v>
       </c>
@@ -5843,10 +5848,10 @@
       <c r="A29">
         <v>13</v>
       </c>
-      <c r="B29" s="58">
+      <c r="B29" s="49">
         <v>1495</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="5"/>
       <c r="G29" s="46"/>
       <c r="H29" s="46"/>
@@ -5857,10 +5862,10 @@
       <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="58">
+      <c r="B30" s="49">
         <v>2036</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="5"/>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
@@ -5871,10 +5876,10 @@
       <c r="A31">
         <v>15</v>
       </c>
-      <c r="B31" s="58">
+      <c r="B31" s="49">
         <v>1231</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="5"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -5888,6 +5893,809 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:L28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05D0A3B-6412-6140-BBE5-D02FC58D49EA}">
+  <dimension ref="A1:S64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5" s="38">
+        <f>P22/100</f>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C5">
+        <f>SUM(E5:K5)</f>
+        <v>13186</v>
+      </c>
+      <c r="D5">
+        <f>B5*C5</f>
+        <v>2676.7580000000003</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E10" si="0">B20</f>
+        <v>2412</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F10" si="1">B21</f>
+        <v>1514</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G10" si="2">B22</f>
+        <v>1501</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H10" si="3">B23</f>
+        <v>2041</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I10" si="4">B24</f>
+        <v>2052</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" ref="J5:J10" si="5">B25</f>
+        <v>1909</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" ref="K5:K10" si="6">B26</f>
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6" s="38">
+        <f t="shared" ref="B6:B10" si="7">P23/100</f>
+        <v>0.128</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C10" si="8">SUM(E6:K6)</f>
+        <v>12282</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D10" si="9">B6*C6</f>
+        <v>1572.096</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>1514</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>1501</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>2041</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>2052</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="4"/>
+        <v>1909</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="5"/>
+        <v>1757</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="6"/>
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>19</v>
+      </c>
+      <c r="B7" s="38">
+        <f t="shared" si="7"/>
+        <v>0.182</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="8"/>
+        <v>11817</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="9"/>
+        <v>2150.694</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>1501</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>2041</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>2052</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="3"/>
+        <v>1909</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="4"/>
+        <v>1757</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="5"/>
+        <v>1508</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="6"/>
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8" s="38">
+        <f t="shared" si="7"/>
+        <v>0.22399999999999998</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="8"/>
+        <v>11383</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="9"/>
+        <v>2549.7919999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>2052</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="2"/>
+        <v>1909</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="3"/>
+        <v>1757</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="4"/>
+        <v>1508</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="5"/>
+        <v>1049</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="6"/>
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9" s="38">
+        <f t="shared" si="7"/>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="8"/>
+        <v>11001</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="9"/>
+        <v>2277.2069999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>2052</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>1909</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="2"/>
+        <v>1757</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="3"/>
+        <v>1508</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="4"/>
+        <v>1049</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="5"/>
+        <v>1067</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="6"/>
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>22</v>
+      </c>
+      <c r="B10" s="38">
+        <f t="shared" si="7"/>
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="8"/>
+        <v>9942</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="9"/>
+        <v>556.75199999999995</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>1909</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>1757</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="2"/>
+        <v>1508</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="3"/>
+        <v>1049</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="4"/>
+        <v>1067</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="5"/>
+        <v>1659</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="6"/>
+        <v>993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D11" s="39">
+        <f>SUM(D5:D10)</f>
+        <v>11783.299000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="47">
+        <f>D11/7</f>
+        <v>1683.3284285714287</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2202</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2026</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3057</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3155</v>
+      </c>
+      <c r="C17" s="49"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2777</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2554</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2412</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="5"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+    </row>
+    <row r="21" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1514</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="5"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="L21" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="51"/>
+      <c r="N21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1501</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="5"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="L22" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22">
+        <v>17</v>
+      </c>
+      <c r="N22">
+        <v>1336141</v>
+      </c>
+      <c r="O22">
+        <v>20.3</v>
+      </c>
+      <c r="P22">
+        <v>20.3</v>
+      </c>
+      <c r="Q22">
+        <v>20.3</v>
+      </c>
+      <c r="S22" s="40"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2041</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="5"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="L23" s="58"/>
+      <c r="M23">
+        <v>18</v>
+      </c>
+      <c r="N23">
+        <v>840143</v>
+      </c>
+      <c r="O23">
+        <v>12.8</v>
+      </c>
+      <c r="P23">
+        <v>12.8</v>
+      </c>
+      <c r="Q23">
+        <v>33.1</v>
+      </c>
+      <c r="S23" s="40"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2052</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="5"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="L24" s="58"/>
+      <c r="M24">
+        <v>19</v>
+      </c>
+      <c r="N24">
+        <v>1198856</v>
+      </c>
+      <c r="O24">
+        <v>18.2</v>
+      </c>
+      <c r="P24">
+        <v>18.2</v>
+      </c>
+      <c r="Q24">
+        <v>51.3</v>
+      </c>
+      <c r="S24" s="40"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1909</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="5"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="L25" s="58"/>
+      <c r="M25">
+        <v>20</v>
+      </c>
+      <c r="N25">
+        <v>1474168</v>
+      </c>
+      <c r="O25">
+        <v>22.4</v>
+      </c>
+      <c r="P25">
+        <v>22.4</v>
+      </c>
+      <c r="Q25">
+        <v>73.7</v>
+      </c>
+      <c r="S25" s="40"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1757</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="5"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="L26" s="58"/>
+      <c r="M26">
+        <v>21</v>
+      </c>
+      <c r="N26">
+        <v>1364970</v>
+      </c>
+      <c r="O26">
+        <v>20.7</v>
+      </c>
+      <c r="P26">
+        <v>20.7</v>
+      </c>
+      <c r="Q26">
+        <v>94.4</v>
+      </c>
+      <c r="S26" s="40"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1508</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="5"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="L27" s="58"/>
+      <c r="M27">
+        <v>22</v>
+      </c>
+      <c r="N27">
+        <v>366596</v>
+      </c>
+      <c r="O27">
+        <v>5.6</v>
+      </c>
+      <c r="P27">
+        <v>5.6</v>
+      </c>
+      <c r="Q27">
+        <v>100</v>
+      </c>
+      <c r="S27" s="40"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1049</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="5"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="L28" s="59"/>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28">
+        <v>6580875</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+      <c r="P28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1067</v>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="D29" s="5"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>21</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1659</v>
+      </c>
+      <c r="C30" s="49"/>
+      <c r="D30" s="5"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>22</v>
+      </c>
+      <c r="B31" s="5">
+        <v>993</v>
+      </c>
+      <c r="C31" s="49"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>54</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
